--- a/saved.xlsx
+++ b/saved.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="holders" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sales" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="resales" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="holders" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +442,3821 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price listed usd</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>price listed xpr</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>price listed loans</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>buyer</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t># of nft</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Anomaly #194</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>03-03-2022 02:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Anomaly #188</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>03-03-2022 02:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>200</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Anomaly #142</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>03-03-2022 02:20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>halohaven</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Anomaly #157</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>03-03-2022 02:18:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>halohaven</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Anomaly #130</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>03-03-2022 01:20:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Anomaly #63</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>02-03-2022 06:29:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Anomaly #120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>02-03-2022 06:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Anomaly #190</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>02-03-2022 06:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Anomaly #61</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>02-03-2022 06:05:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>mikemess</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Anomaly #186</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18-03-2022 19:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cryptofun</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Augury Ogre #24</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>03-03-2022 18:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>spspsp1</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Augury Ogre #29</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>25-03-2022 08:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>shrijan</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Augury Troll #5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>19-03-2022 20:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>150</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Augury Dragon #4</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>11-03-2022 22:03:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>crypto5</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Zarf Bomb</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>31-03-2022 04:36:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mulciber Jinn #9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>28-03-2022 15:43:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nigelgil</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Mulciber Jinn #11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>25-03-2022 14:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Gorgon #8</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>11-03-2022 02:54:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>roald</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Mulciber Cherufe #7</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>06-03-2022 19:44:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>phantom1</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Rarog #9</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>28-03-2022 01:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>flowerpetals</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Gremlin #10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>28-03-2022 01:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>roald</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Rarog #8</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>06-03-2022 02:06:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>pudawee</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mulciber Jinn #5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>05-03-2022 13:33:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>uchemekagu</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Anomaly #157</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>03-03-2022 02:18:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>200</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Anomaly #119</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>15-03-2022 23:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>200</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>nuclieyes</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Anomaly #24</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>26-03-2022 04:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>150</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Battle Panda #5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>21-03-2022 16:15:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>150</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nigelgil</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Battle Panda #6</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>11-03-2022 00:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>200</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PANDA BOY #23</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>08-03-2022 02:40:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>200</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PANDA BOY #24</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>07-03-2022 03:07:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>150</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>roald</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Battle Panda #3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>06-03-2022 02:06:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>150</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Battle Panda #4</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>06-03-2022 00:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>150</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>dannymarshal</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Battle Panda #2</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>05-03-2022 14:46:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>delaneycb</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Crypto Steve #26</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>19-03-2022 22:55:03</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">first buyer </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>next buyer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>price listed usd</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>price listed xpr</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>price listed loans</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t># of nft</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mursescott</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>roald</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Jackal's Wildcard</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>29-03-2022 14:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nigelgil</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>400</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PecuKid #2</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25-03-2022 22:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>anderson22</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>delaneyrp</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Peculiar #54</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20-03-2022 21:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nimrod #19e - Ogre Summoner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22-03-2022 04:15:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Volant #16d - Ogre Summoner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>21-03-2022 19:50:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>450</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mulciber Cherufe #1</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>16-03-2022 05:27:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>runningfree</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>skylarking</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Imp #4</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>05-03-2022 12:09:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>155</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gorgon #8</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>11-03-2022 00:08:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Imp #1</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10-03-2022 08:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>btctaco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Imp #8</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>22</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>07-03-2022 02:11:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>timkello</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jackal's Wildcard</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>38</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>05-03-2022 22:51:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cryptofun</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>284</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Augury Ogre #24</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>03-03-2022 18:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sendbob</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>almonds</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jackal's Wildcard</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>28-03-2022 15:43:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>spspsp1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>270</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Augury Ogre #29</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>25-03-2022 04:01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>roald</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Peculiar #132</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>22-03-2022 18:38:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xavierxpr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cryptoblitz</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Peculiar #77</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>20-03-2022 01:20:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44800</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Augury Troll #5</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>19-03-2022 20:01:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mikemess</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Rarog #18</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>03-03-2022 17:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mikemess</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Gorgon #5</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>03-03-2022 17:39:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>800</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Peculiar #105</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>01-03-2022 20:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pinwheel</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>btctaco</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>750</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Chimera #14</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>01-03-2022 20:09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>whetstone</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mikemess</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>250</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Peculiar #100</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>24-03-2022 02:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sendbob</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>365</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>30-03-2022 02:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mursescott</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>392</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>30-03-2022 02:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mursescott</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>22</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>297</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>30-03-2022 02:30:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mursescott</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>22</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>208</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>30-03-2022 02:29:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sendbob</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>22</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>244</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>29-03-2022 21:11:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>bubjax</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rohitverma</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>36</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Panda Youngling SE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>28-03-2022 12:00:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sassysaz</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>291</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>29-03-2022 13:56:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>bubjax</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>44</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>29-03-2022 01:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>bubjax</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>27</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>28-03-2022 16:01:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>bubjax</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>22</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>25</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>27-03-2022 19:14:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>bubjax</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>22</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>27-03-2022 00:02:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>btctaco</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>17</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>24-03-2022 03:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>24</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>64</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>25-03-2022 04:12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>josephfrank</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cryptoblitz</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>20 PIM</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>45</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>16-03-2022 22:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sassysaz</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>27</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>219</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>09-03-2022 20:57:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>onac</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>26</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>76</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>20-03-2022 13:14:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>onac</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>148</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>20-03-2022 13:14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>68</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14-03-2022 17:51:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sendbob</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>153</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>17-03-2022 15:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>tzunoi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>341</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>12-03-2022 08:02:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>tzunoi</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>55</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>11-03-2022 12:20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sassysaz</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>93</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>08-03-2022 15:46:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>28</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>100</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>08-03-2022 20:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>windryder</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>35</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>329</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>07-03-2022 19:48:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mursescott</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>33</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>119</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>07-03-2022 01:48:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>117</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>06-03-2022 06:35:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ezze</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>31</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>87</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>07-03-2022 09:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mario21</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>goattude</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>253</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>07-03-2022 12:06:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>bubjax</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>nigelgil</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>135</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Panda Youngling SE</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>15</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>05-03-2022 18:20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>burritobtc</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>36</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>61</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>03-03-2022 23:57:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>70</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>10 PIM</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>58</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>03-03-2022 18:11:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>goaty</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>167</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>03-03-2022 18:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>30</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>245</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>03-03-2022 17:06:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>288</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>03-03-2022 15:59:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>304</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>03-03-2022 15:58:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mursescott</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>btctaco</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>171</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>02-03-2022 23:19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>xavierxpr</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>25</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>148</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>02-03-2022 23:54:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>xavierxpr</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>25</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>135</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>02-03-2022 23:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>xavierxpr</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>25</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>79</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>02-03-2022 23:41:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>xavierxpr</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>25</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>183</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>01-03-2022 05:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ezze</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>80</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>01-03-2022 02:10:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ezze</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>127</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>01-03-2022 02:10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ezze</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>164</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>01-03-2022 02:11:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ezze</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>173</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>01-03-2022 02:12:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ezze</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>271</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>01-03-2022 02:12:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>xavierxpr</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>phkunz</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>54</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>01-03-2022 05:17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>btctaco</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>82</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>25-03-2022 05:05:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>btctaco</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>79</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>25-03-2022 05:05:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Panda Youngling SE</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>12</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>19-03-2022 19:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sugabaydiw</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>90</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Panda Youngling SE</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>12</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>05-03-2022 14:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5 PIM</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>352</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>02-03-2022 03:41:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ridx</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>180</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Crypto Steve #26</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>08-03-2022 09:00:24</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
   </cols>
@@ -461,9 +4277,2641 @@
           <t>points</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8085</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>btctaco</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3825</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gfrog33</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2765</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hocwallet</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2615</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kenns</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>roald</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dannymarshal</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>goaty</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pudawee</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pinwheel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cryptoblitz</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nigelgil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>835</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>tljb</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>715</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sonic12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>700</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>timkello</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>610</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nakanaka</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>580</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pnice</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>570</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>imhellasick</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>550</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>swishdeck</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>aaronniew</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mrroboto</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>530</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>phkunz</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>525</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>jen1234</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>460</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>moshi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>420</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>uchemekagu</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>405</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nrblanscet</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>390</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rohitverma</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>380</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>windryder</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>365</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>install4u222</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>360</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>bluejay</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>355</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dkunz</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>330</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>phijo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>320</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>jayang</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>310</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>josephfrank</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>305</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mikemess</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>295</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>flowerpetals</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>290</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>onac</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>290</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>halohaven</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>280</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>tobias</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>275</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>almonds</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bubjax</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>260</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>jeffwallet</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>245</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>zanastasia</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>240</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>protonroad</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>230</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>zachrush</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>220</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>200</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>jvargo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>190</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>magicsparks</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>185</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ffire</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>180</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>delaneyrp</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>180</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>stonebreaker</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>180</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>runningfree</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>170</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>burritobtc</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>150</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>retrojuba</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>150</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>nnjarkaz</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>150</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sendbob</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>150</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ezze</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>150</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mario21</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>135</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>yager</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>130</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>kevcollector</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>125</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>rmwill22</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>120</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>crypto5</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>110</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>supriy</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>110</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>sassysaz</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>105</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>finra</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>100</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>phantom1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>100</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>icewater</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>100</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>shrijan</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>100</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mursescott</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>100</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>georgems</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>95</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>spikefund</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>95</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ikonik</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>80</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>tzunoi</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>65</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>piratesofxpr</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>65</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>bolova</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>60</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>whetstone</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>60</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>investorb</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>60</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>aleks</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>40</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>danfletcher</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>35</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>tonylopez</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>35</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>shabbi</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>30</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>protoverse21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>30</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>tobinalan</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ridx</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>25</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>blakewrobbel</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>20</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>spartan3e</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>20</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>shunya</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>20</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>atomicmarket</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>15</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>mrjay</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>15</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>michael11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>spspsp1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>15</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>doedotype1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mrfrankie</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>10</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>solly1223</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mbp11</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>xavierxpr</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>10</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>noahsark</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>10</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ingridkilian</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>10</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>tagir</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>10</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>lalone</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>10</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>10</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>torncash</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>cryptoboyz</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>skylarking</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>kingcongo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>juth</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>metaljam</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>xpralways</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>dogetoshi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>efosa</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>cpix</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>alcapwnd</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>anderson22</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>antti</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>thedirtybean</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sugabaydiw</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>dodao</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>deltree</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>darthhater</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sebastian1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sbmk</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sanamaya</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>cryptofaith</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>burn</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>goattude</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
         <is>
           <t>0</t>
         </is>
